--- a/Data/site_coding/WWTP_codes1.xlsx
+++ b/Data/site_coding/WWTP_codes1.xlsx
@@ -1,39 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltisza/mike_tisza/github_repos/TEPHI_WW_virus_report/data/site_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u241374/mike_tisza/cmmr_repos/TEPHI_WW_virus_report/data/site_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4308AB0B-D0D2-0B4D-AA88-EB1A768BC2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F81802-51FD-2640-AAD7-8744C7E00AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31160" yWindow="4040" windowWidth="28040" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="4040" windowWidth="28040" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WWTP_codes1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+  <si>
+    <t>Almeda Sims</t>
+  </si>
+  <si>
+    <t>HOU Z9</t>
+  </si>
+  <si>
+    <t>Homestead</t>
+  </si>
+  <si>
+    <t>HOU J6</t>
+  </si>
+  <si>
+    <t>Intercontinental Airport</t>
+  </si>
+  <si>
+    <t>HOU R5</t>
+  </si>
+  <si>
+    <t>Metro Central</t>
+  </si>
+  <si>
+    <t>HOU S3</t>
+  </si>
+  <si>
+    <t>Park Ten</t>
+  </si>
+  <si>
+    <t>HOU B9</t>
+  </si>
+  <si>
+    <t>Turkey Creek</t>
+  </si>
+  <si>
+    <t>HOU C1</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>EPS T4</t>
+  </si>
+  <si>
+    <t>Roberto Bustamante</t>
+  </si>
+  <si>
+    <t>EPS Q9</t>
+  </si>
+  <si>
+    <t>Fred Hurvey</t>
+  </si>
+  <si>
+    <t>EPS K6</t>
+  </si>
+  <si>
+    <t>John T. Hickerson</t>
+  </si>
+  <si>
+    <t>EPS J3</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -41,110 +88,68 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Almeda Sims</t>
-  </si>
-  <si>
-    <t>HOU Z9</t>
-  </si>
-  <si>
-    <t>Homestead</t>
-  </si>
-  <si>
-    <t>HOU J6</t>
-  </si>
-  <si>
-    <t>Intercontinental Airport</t>
-  </si>
-  <si>
-    <t>HOU R5</t>
-  </si>
-  <si>
-    <t>Metro Central</t>
-  </si>
-  <si>
-    <t>HOU S3</t>
-  </si>
-  <si>
-    <t>Park Ten</t>
-  </si>
-  <si>
-    <t>HOU B9</t>
-  </si>
-  <si>
-    <t>Turkey Creek</t>
-  </si>
-  <si>
-    <t>HOU C1</t>
-  </si>
-  <si>
-    <t>Haskell</t>
-  </si>
-  <si>
-    <t>EPS T4</t>
-  </si>
-  <si>
-    <t>Roberto Bustamante</t>
-  </si>
-  <si>
-    <t>EPS Q9</t>
-  </si>
-  <si>
-    <t>Fred Hurvey</t>
-  </si>
-  <si>
-    <t>EPS K6</t>
+    <t>BRSV_TX1</t>
+  </si>
+  <si>
+    <t>BRSV_TX2</t>
+  </si>
+  <si>
+    <t>LB_TX1</t>
+  </si>
+  <si>
+    <t>WICH_TX1</t>
+  </si>
+  <si>
+    <t>Baytown Central</t>
+  </si>
+  <si>
+    <t>Baytown West</t>
+  </si>
+  <si>
+    <t>Humble West</t>
+  </si>
+  <si>
+    <t>West Fondren Rd</t>
+  </si>
+  <si>
+    <t>MISS C1</t>
+  </si>
+  <si>
+    <t>HUM Y7</t>
+  </si>
+  <si>
+    <t>BAY G6</t>
+  </si>
+  <si>
+    <t>BAY H0</t>
   </si>
   <si>
     <t>Fred Hervey</t>
   </si>
   <si>
-    <t>John T. Hickerson</t>
-  </si>
-  <si>
-    <t>EPS J3</t>
-  </si>
-  <si>
-    <t>BRSV_TX1</t>
-  </si>
-  <si>
-    <t>BRSV_TX2</t>
-  </si>
-  <si>
-    <t>LB_TX1</t>
-  </si>
-  <si>
-    <t>WICH_TX1</t>
-  </si>
-  <si>
-    <t>Baytown Central</t>
-  </si>
-  <si>
-    <t>BAY H0</t>
-  </si>
-  <si>
-    <t>Baytown West</t>
-  </si>
-  <si>
-    <t>BAY G6</t>
-  </si>
-  <si>
-    <t>Humble West</t>
-  </si>
-  <si>
-    <t>HUM Y7</t>
-  </si>
-  <si>
-    <t>West Fondren Rd</t>
-  </si>
-  <si>
-    <t>MISS C1</t>
+    <t>South Austin 1</t>
+  </si>
+  <si>
+    <t>South Austin 2</t>
+  </si>
+  <si>
+    <t>Walnut Creek</t>
+  </si>
+  <si>
+    <t>AUS P1</t>
+  </si>
+  <si>
+    <t>AUS V4</t>
+  </si>
+  <si>
+    <t>AUS M9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -978,175 +983,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/site_coding/WWTP_codes1.xlsx
+++ b/Data/site_coding/WWTP_codes1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u241374/mike_tisza/cmmr_repos/TEPHI_WW_virus_report/data/site_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uthtmc-my.sharepoint.com/personal/hieu_t_nguyen_uth_tmc_edu1/Documents/TEPHI_WW_RShinyDashboard/Data/site_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F81802-51FD-2640-AAD7-8744C7E00AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="4040" windowWidth="28040" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="330" windowWidth="22200" windowHeight="20910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WWTP_codes1" sheetId="1" r:id="rId1"/>
@@ -986,15 +986,15 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>

--- a/Data/site_coding/WWTP_codes1.xlsx
+++ b/Data/site_coding/WWTP_codes1.xlsx
@@ -1,27 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uthtmc-my.sharepoint.com/personal/hieu_t_nguyen_uth_tmc_edu1/Documents/TEPHI_WW_RShinyDashboard/Data/site_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u241374/mike_tisza/cmmr_repos/TEPHI_WW_virus_report/data/site_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F81802-51FD-2640-AAD7-8744C7E00AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="330" windowWidth="22200" windowHeight="20910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="4040" windowWidth="28040" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WWTP_codes1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>Almeda Sims</t>
   </si>
   <si>
@@ -76,18 +98,15 @@
     <t>EPS K6</t>
   </si>
   <si>
+    <t>Fred Hervey</t>
+  </si>
+  <si>
     <t>John T. Hickerson</t>
   </si>
   <si>
     <t>EPS J3</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>BRSV_TX1</t>
   </si>
   <si>
@@ -103,43 +122,40 @@
     <t>Baytown Central</t>
   </si>
   <si>
+    <t>BAY H0</t>
+  </si>
+  <si>
     <t>Baytown West</t>
   </si>
   <si>
+    <t>BAY G6</t>
+  </si>
+  <si>
     <t>Humble West</t>
   </si>
   <si>
+    <t>HUM Y7</t>
+  </si>
+  <si>
     <t>West Fondren Rd</t>
   </si>
   <si>
     <t>MISS C1</t>
   </si>
   <si>
-    <t>HUM Y7</t>
-  </si>
-  <si>
-    <t>BAY G6</t>
-  </si>
-  <si>
-    <t>BAY H0</t>
-  </si>
-  <si>
-    <t>Fred Hervey</t>
-  </si>
-  <si>
     <t>South Austin 1</t>
   </si>
   <si>
+    <t>AUS P1</t>
+  </si>
+  <si>
     <t>South Austin 2</t>
   </si>
   <si>
+    <t>AUS V4</t>
+  </si>
+  <si>
     <t>Walnut Creek</t>
-  </si>
-  <si>
-    <t>AUS P1</t>
-  </si>
-  <si>
-    <t>AUS V4</t>
   </si>
   <si>
     <t>AUS M9</t>
@@ -149,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -986,193 +1002,193 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
